--- a/ncc.xlsx
+++ b/ncc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Tanusri Bhowmick</t>
   </si>
@@ -40,15 +40,6 @@
     <t xml:space="preserve">sal_zun@yahoo.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Aboli Marathe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krisha Bhambani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abolirm@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Harsh Sakhrani</t>
   </si>
   <si>
@@ -62,15 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">kaustubhodak@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priyal Belgamwar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parnika Pitale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priyal.belgamwar@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -163,12 +145,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -178,16 +160,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="28.04"/>
   </cols>
@@ -227,11 +209,8 @@
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -239,48 +218,21 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" display="tanusribhowmick0@gmail.com"/>
     <hyperlink ref="D2" r:id="rId2" display="sal_zun@yahoo.com"/>
-    <hyperlink ref="D3" r:id="rId3" display="abolirm@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId4" display="hss2000264@gmail.com"/>
-    <hyperlink ref="D5" r:id="rId5" display="kaustubhodak@hotmail.com"/>
-    <hyperlink ref="D6" r:id="rId6" display="priyal.belgamwar@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId3" display="hss2000264@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId4" display="kaustubhodak@hotmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/ncc.xlsx
+++ b/ncc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">Tanusri Bhowmick</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">Harsh Sakhrani</t>
   </si>
   <si>
+    <t xml:space="preserve">Priyal Belgamwar</t>
+  </si>
+  <si>
     <t xml:space="preserve">hss2000264@gmail.com</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">kaustubhodak@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tanmaypardeshi@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -145,12 +151,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -160,13 +166,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
@@ -209,8 +215,11 @@
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -218,13 +227,24 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -233,6 +253,7 @@
     <hyperlink ref="D2" r:id="rId2" display="sal_zun@yahoo.com"/>
     <hyperlink ref="D3" r:id="rId3" display="hss2000264@gmail.com"/>
     <hyperlink ref="D4" r:id="rId4" display="kaustubhodak@hotmail.com"/>
+    <hyperlink ref="D5" r:id="rId5" display="tanmaypardeshi@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/ncc.xlsx
+++ b/ncc.xlsx
@@ -46,16 +46,16 @@
     <t xml:space="preserve">Priyal Belgamwar</t>
   </si>
   <si>
-    <t xml:space="preserve">hss2000264@gmail.com</t>
+    <t xml:space="preserve">priyal.belgamwar@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Kaustubh Odak</t>
   </si>
   <si>
-    <t xml:space="preserve">Omkar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kaustubhodak@hotmail.com</t>
+    <t xml:space="preserve">Omkar Nikhal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaustubhodak1@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">tanmaypardeshi@gmail.com</t>
@@ -169,14 +169,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="28.04"/>
   </cols>
   <sheetData>
@@ -251,8 +251,8 @@
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" display="tanusribhowmick0@gmail.com"/>
     <hyperlink ref="D2" r:id="rId2" display="sal_zun@yahoo.com"/>
-    <hyperlink ref="D3" r:id="rId3" display="hss2000264@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId4" display="kaustubhodak@hotmail.com"/>
+    <hyperlink ref="D3" r:id="rId3" display="priyal.belgamwar@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId4" display="kaustubhodak1@gmail.com"/>
     <hyperlink ref="D5" r:id="rId5" display="tanmaypardeshi@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ncc.xlsx
+++ b/ncc.xlsx
@@ -20,7 +20,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">Vaishnavi Rokade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanmay Pardeshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaishrok@gmail.com</t>
+  </si>
   <si>
     <t xml:space="preserve">Tanusri Bhowmick</t>
   </si>
@@ -31,9 +40,6 @@
     <t xml:space="preserve">tanusribhowmick0@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Tanmay Pardeshi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saloni Parekh</t>
   </si>
   <si>
@@ -56,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">kaustubhodak1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanmay</t>
   </si>
   <si>
     <t xml:space="preserve">tanmaypardeshi@gmail.com</t>
@@ -166,13 +175,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
@@ -213,13 +222,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -227,13 +236,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -241,19 +250,34 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" display="tanusribhowmick0@gmail.com"/>
-    <hyperlink ref="D2" r:id="rId2" display="sal_zun@yahoo.com"/>
-    <hyperlink ref="D3" r:id="rId3" display="priyal.belgamwar@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId4" display="kaustubhodak1@gmail.com"/>
-    <hyperlink ref="D5" r:id="rId5" display="tanmaypardeshi@gmail.com"/>
+    <hyperlink ref="D1" r:id="rId1" display="vaishrok@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId2" display="tanusribhowmick0@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId3" display="sal_zun@yahoo.com"/>
+    <hyperlink ref="D4" r:id="rId4" display="priyal.belgamwar@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId5" display="kaustubhodak1@gmail.com"/>
+    <hyperlink ref="D6" r:id="rId6" display="tanmaypardeshi@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/ncc.xlsx
+++ b/ncc.xlsx
@@ -20,54 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">Tanusri Bhowmick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muffadal Diwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tanusribhowmick0@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanmay Pardeshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saloni Parekh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sal_zun@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harsh Sakhrani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyal Belgamwar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priyal.belgamwar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaustubh Odak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omkar Nikhal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaustubhodak1@gmail.com</t>
+  </si>
   <si>
     <t xml:space="preserve">Vaishnavi Rokade</t>
   </si>
   <si>
-    <t xml:space="preserve">Tanmay Pardeshi</t>
-  </si>
-  <si>
     <t xml:space="preserve">vaishrok@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanusri Bhowmick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muffadal Diwan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tanusribhowmick0@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saloni Parekh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sal_zun@yahoo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harsh Sakhrani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priyal Belgamwar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priyal.belgamwar@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaustubh Odak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omkar Nikhal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kaustubhodak1@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanmay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tanmaypardeshi@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -175,13 +169,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
@@ -222,13 +216,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -236,13 +230,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -250,7 +244,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>12</v>
@@ -259,25 +253,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" display="vaishrok@gmail.com"/>
-    <hyperlink ref="D2" r:id="rId2" display="tanusribhowmick0@gmail.com"/>
-    <hyperlink ref="D3" r:id="rId3" display="sal_zun@yahoo.com"/>
-    <hyperlink ref="D4" r:id="rId4" display="priyal.belgamwar@gmail.com"/>
-    <hyperlink ref="D5" r:id="rId5" display="kaustubhodak1@gmail.com"/>
-    <hyperlink ref="D6" r:id="rId6" display="tanmaypardeshi@gmail.com"/>
+    <hyperlink ref="D1" r:id="rId1" display="tanusribhowmick0@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId2" display="sal_zun@yahoo.com"/>
+    <hyperlink ref="D3" r:id="rId3" display="priyal.belgamwar@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId4" display="kaustubhodak1@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId5" display="vaishrok@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/ncc.xlsx
+++ b/ncc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">Tanusri Bhowmick</t>
   </si>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">sal_zun@yahoo.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Harsh Sakhrani</t>
-  </si>
-  <si>
     <t xml:space="preserve">Priyal Belgamwar</t>
   </si>
   <si>
@@ -58,10 +55,7 @@
     <t xml:space="preserve">kaustubhodak1@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Vaishnavi Rokade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vaishrok@gmail.com</t>
+    <t xml:space="preserve">tanmaypardeshi@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -172,10 +166,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
@@ -218,11 +212,8 @@
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -230,13 +221,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -246,11 +237,8 @@
       <c r="B5" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -259,7 +247,7 @@
     <hyperlink ref="D2" r:id="rId2" display="sal_zun@yahoo.com"/>
     <hyperlink ref="D3" r:id="rId3" display="priyal.belgamwar@gmail.com"/>
     <hyperlink ref="D4" r:id="rId4" display="kaustubhodak1@gmail.com"/>
-    <hyperlink ref="D5" r:id="rId5" display="vaishrok@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId5" display="tanmaypardeshi@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/ncc.xlsx
+++ b/ncc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">Tanusri Bhowmick</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">tanmaypardeshi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
   </si>
 </sst>
 </file>
@@ -163,13 +166,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
@@ -240,6 +243,42 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
